--- a/file chia việc.xlsx
+++ b/file chia việc.xlsx
@@ -43,7 +43,7 @@
     <t>Nguyễn Trung Huy</t>
   </si>
   <si>
-    <t>detail.html and register page</t>
+    <t>index, detail and register page</t>
   </si>
   <si>
     <t>27/7</t>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -85,7 +85,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,20 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -122,22 +108,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +138,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -167,14 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -192,6 +170,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -199,7 +207,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,21 +223,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,175 +261,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,34 +474,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,16 +513,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +553,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -573,7 +573,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,134 +591,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -745,11 +745,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1132,7 +1133,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
@@ -1193,104 +1194,104 @@
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" ht="15.15" hidden="1" spans="1:6">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" ht="15.15" hidden="1" spans="1:6">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" ht="15.15" hidden="1" spans="1:6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" ht="15.15" hidden="1" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" ht="15.15" spans="1:6">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" ht="15.15" spans="1:6">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" ht="15.15" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" ht="15.15" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" ht="15.15" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" ht="15.15" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" ht="15.15" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
